--- a/database/industries/lastic/pekavir/cost/yearly.xlsx
+++ b/database/industries/lastic/pekavir/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2CC78A-9E54-49E1-B242-7A68F98F0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +375,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -386,7 +387,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -433,6 +434,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,17 +654,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +679,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +696,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +713,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +728,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +745,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -742,7 +777,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -779,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -794,7 +829,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -831,7 +866,7 @@
         <v>12196301</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -868,7 +903,7 @@
         <v>874152</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -905,7 +940,7 @@
         <v>1709897</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -942,7 +977,7 @@
         <v>14780350</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>14780350</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1088,7 @@
         <v>-156873</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>14623477</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>77459</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1236,7 @@
         <v>-75205</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>14625731</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1347,7 @@
         <v>14625731</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1327,7 +1362,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1342,7 +1377,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1357,7 +1392,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1394,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1409,7 +1444,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>745548</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1487,7 +1522,7 @@
         <v>745548</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1561,7 @@
         <v>1236307</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>1236307</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>949730</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1676,7 @@
         <v>949730</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +1697,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
@@ -1683,7 +1718,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +1739,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1725,7 +1760,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1779,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1759,7 +1794,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1774,7 +1809,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1789,7 +1824,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1841,7 +1876,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +1915,7 @@
         <v>4143548</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1954,7 @@
         <v>4143548</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
@@ -1958,7 +1993,7 @@
         <v>4174901</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>34</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>4174901</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>35</v>
       </c>
@@ -2036,7 +2071,7 @@
         <v>8654830</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2108,7 @@
         <v>8654830</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2129,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>34</v>
       </c>
@@ -2115,7 +2150,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>35</v>
       </c>
@@ -2136,7 +2171,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2192,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2211,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2191,7 +2226,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2206,7 +2241,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2221,7 +2256,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2273,7 +2308,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>30</v>
       </c>
@@ -2312,7 +2347,7 @@
         <v>3952444</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>3952444</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2425,7 @@
         <v>4623028</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +2464,7 @@
         <v>4623028</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>35</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>8907175</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>18</v>
       </c>
@@ -2505,7 +2540,7 @@
         <v>8907175</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>34</v>
       </c>
@@ -2526,7 +2561,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2582,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2603,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>35</v>
       </c>
@@ -2589,7 +2624,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2643,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2623,7 +2658,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2638,7 +2673,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2653,7 +2688,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2705,7 +2740,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>936652</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>936652</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>788180</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>34</v>
       </c>
@@ -2861,7 +2896,7 @@
         <v>788180</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
@@ -2900,7 +2935,7 @@
         <v>697385</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>18</v>
       </c>
@@ -2937,7 +2972,7 @@
         <v>697385</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
@@ -2958,7 +2993,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -2979,7 +3014,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3000,7 +3035,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>35</v>
       </c>
@@ -3021,7 +3056,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>18</v>
       </c>
@@ -3040,7 +3075,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3055,7 +3090,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3070,7 +3105,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3085,7 +3120,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>39</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3137,7 +3172,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>30</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>323485</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>547799</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>33</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>509158</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>34</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>124902</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>35</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>64796</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>18</v>
       </c>
@@ -3369,7 +3404,7 @@
         <v>1570140</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3384,7 +3419,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3399,7 +3434,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3414,7 +3449,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>41</v>
       </c>
@@ -3451,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3466,7 +3501,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>30</v>
       </c>
@@ -3505,7 +3540,7 @@
         <v>1777213</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>32</v>
       </c>
@@ -3544,7 +3579,7 @@
         <v>2503856</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>33</v>
       </c>
@@ -3583,7 +3618,7 @@
         <v>3858225</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>34</v>
       </c>
@@ -3622,7 +3657,7 @@
         <v>2636842</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>35</v>
       </c>
@@ -3661,7 +3696,7 @@
         <v>1931219</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>18</v>
       </c>
@@ -3698,7 +3733,7 @@
         <v>12707355</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3713,7 +3748,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3728,7 +3763,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3743,7 +3778,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>42</v>
       </c>
@@ -3780,7 +3815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3795,7 +3830,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3869,7 @@
         <v>1569314</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>32</v>
       </c>
@@ -3873,7 +3908,7 @@
         <v>2522336</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>33</v>
       </c>
@@ -3912,7 +3947,7 @@
         <v>3929599</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>34</v>
       </c>
@@ -3951,7 +3986,7 @@
         <v>2473796</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>35</v>
       </c>
@@ -3990,7 +4025,7 @@
         <v>1701256</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>18</v>
       </c>
@@ -4027,7 +4062,7 @@
         <v>12196301</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4042,7 +4077,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4057,7 +4092,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4072,7 +4107,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>43</v>
       </c>
@@ -4109,7 +4144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4124,7 +4159,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>30</v>
       </c>
@@ -4163,7 +4198,7 @@
         <v>531384</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -4202,7 +4237,7 @@
         <v>529319</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>33</v>
       </c>
@@ -4241,7 +4276,7 @@
         <v>437784</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>34</v>
       </c>
@@ -4280,7 +4315,7 @@
         <v>287948</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>35</v>
       </c>
@@ -4319,7 +4354,7 @@
         <v>294759</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>18</v>
       </c>
@@ -4356,7 +4391,7 @@
         <v>2081194</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4371,7 +4406,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4386,7 +4421,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4401,7 +4436,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>44</v>
       </c>
@@ -4438,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4453,7 +4488,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -4492,7 +4527,7 @@
         <v>433889</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>433889</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -4570,7 +4605,7 @@
         <v>443093</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -4609,7 +4644,7 @@
         <v>443093</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>35</v>
       </c>
@@ -4648,7 +4683,7 @@
         <v>536108</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>33</v>
       </c>
@@ -4669,7 +4704,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>34</v>
       </c>
@@ -4690,7 +4725,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -4711,7 +4746,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>35</v>
       </c>
@@ -4732,7 +4767,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>35</v>
       </c>
@@ -4753,7 +4788,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4768,7 +4803,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4783,7 +4818,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4798,7 +4833,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>46</v>
       </c>
@@ -4835,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4850,7 +4885,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>30</v>
       </c>
@@ -4889,7 +4924,7 @@
         <v>428911</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>32</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>428911</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>33</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>599740</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>34</v>
       </c>
@@ -5006,7 +5041,7 @@
         <v>599740</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>35</v>
       </c>
@@ -5045,7 +5080,7 @@
         <v>445789</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5101,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>34</v>
       </c>
@@ -5087,7 +5122,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5143,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>35</v>
       </c>
@@ -5129,7 +5164,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>35</v>
       </c>
@@ -5150,7 +5185,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5165,7 +5200,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5180,7 +5215,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5195,7 +5230,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>47</v>
       </c>
@@ -5232,7 +5267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5247,7 +5282,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>30</v>
       </c>
@@ -5286,7 +5321,7 @@
         <v>397049</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>32</v>
       </c>
@@ -5325,7 +5360,7 @@
         <v>397049</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>33</v>
       </c>
@@ -5364,7 +5399,7 @@
         <v>545603</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>34</v>
       </c>
@@ -5403,7 +5438,7 @@
         <v>545603</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>35</v>
       </c>
@@ -5442,7 +5477,7 @@
         <v>441172</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>33</v>
       </c>
@@ -5463,7 +5498,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>34</v>
       </c>
@@ -5484,7 +5519,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>34</v>
       </c>
@@ -5505,7 +5540,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>35</v>
       </c>
@@ -5526,7 +5561,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>35</v>
       </c>
@@ -5547,7 +5582,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5562,7 +5597,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5577,7 +5612,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5592,7 +5627,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
         <v>48</v>
       </c>
@@ -5629,7 +5664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5644,7 +5679,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>30</v>
       </c>
@@ -5683,7 +5718,7 @@
         <v>567323</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>32</v>
       </c>
@@ -5722,7 +5757,7 @@
         <v>567323</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>33</v>
       </c>
@@ -5761,7 +5796,7 @@
         <v>671571</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>34</v>
       </c>
@@ -5800,7 +5835,7 @@
         <v>671571</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>35</v>
       </c>
@@ -5839,7 +5874,7 @@
         <v>627751</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>33</v>
       </c>
@@ -5860,7 +5895,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>34</v>
       </c>
@@ -5881,7 +5916,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>34</v>
       </c>
@@ -5902,7 +5937,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>35</v>
       </c>
@@ -5923,7 +5958,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>35</v>
       </c>
@@ -5944,7 +5979,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5959,7 +5994,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5974,7 +6009,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5989,7 +6024,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>49</v>
       </c>
@@ -6026,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6041,7 +6076,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>50</v>
       </c>
@@ -6078,7 +6113,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>51</v>
       </c>
@@ -6115,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>52</v>
       </c>
@@ -6152,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>53</v>
       </c>
@@ -6189,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>54</v>
       </c>
@@ -6226,7 +6261,7 @@
         <v>111031</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>55</v>
       </c>
@@ -6263,7 +6298,7 @@
         <v>82121</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>56</v>
       </c>
@@ -6300,7 +6335,7 @@
         <v>166574</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>57</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>936342</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>58</v>
       </c>
@@ -6374,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>59</v>
       </c>
@@ -6411,7 +6446,7 @@
         <v>402628</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="14" t="s">
         <v>18</v>
       </c>
